--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-406428.4703283986</v>
+        <v>-409129.6869798556</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="E2" t="n">
-        <v>59.80127191868269</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>109.8242167164186</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>15.91679414297032</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>39.73547977908945</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>136.1208075466715</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>66.77529174074984</v>
       </c>
       <c r="F5" t="n">
-        <v>107.009391262571</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>383.687727815429</v>
+        <v>383.6877278154305</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>138.5445421428523</v>
+        <v>21.05347703422897</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333228</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258714104</v>
+        <v>4.360182258713891</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,19 +1063,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.90523611264382</v>
+        <v>1.905236112643607</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>122.8575851736726</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>17.2809959889625</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>39.47777785871079</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>266.7331670745509</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>11.8270201686695</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>126.1042545976896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>332.0573125627769</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132644</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184563</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615216</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>262.0947498979442</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812555</v>
+        <v>87.26058381812553</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530804</v>
+        <v>10.48847705530794</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075614</v>
+        <v>123.6502311075613</v>
       </c>
       <c r="T12" t="n">
         <v>189.7415240061373</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927384</v>
+        <v>90.25352389927377</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.033548369715021</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>149.6233506630746</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206856</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>135.5795121770519</v>
       </c>
       <c r="F16" t="n">
-        <v>102.1557845699921</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238187</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695798</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>80.08971311159742</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2081,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>133.8107367464759</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>28.23631843387959</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,13 +2324,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>102.7673426709137</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>205.2977868514355</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176261</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>163.9171048773186</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417129</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>108.9065924712591</v>
+        <v>35.41770597126666</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>27.02919805176171</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3272,13 +3272,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053461</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3509,13 +3509,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>223.8290352905946</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856559</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012173</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053466</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487353</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>90.14863908058189</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428217</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.7894056603329</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C2" t="n">
-        <v>101.411749093155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="D2" t="n">
-        <v>101.411749093155</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356494</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946886</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946886</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946886</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>634.1670622275108</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>634.1670622275108</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>634.1670622275108</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.1670622275108</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>567.1498234078708</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="C3" t="n">
-        <v>567.1498234078708</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="D3" t="n">
-        <v>418.2154137466196</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="E3" t="n">
-        <v>258.9779587411641</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957456</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298711</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263948</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110289997</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>904.2569522304907</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1021.314552263894</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.219221609864</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>906.219221609864</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>678.0833756466775</v>
+        <v>808.3837902496284</v>
       </c>
       <c r="V3" t="n">
-        <v>678.0833756466775</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="W3" t="n">
-        <v>567.1498234078708</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="X3" t="n">
-        <v>567.1498234078708</v>
+        <v>557.1541121765016</v>
       </c>
       <c r="Y3" t="n">
-        <v>567.1498234078708</v>
+        <v>349.3938134115477</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393.3076787063514</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="C4" t="n">
-        <v>224.3714957784445</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D4" t="n">
-        <v>224.3714957784445</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E4" t="n">
-        <v>76.45840219605137</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434486</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434486</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434486</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434486</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227042</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075538</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407072</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407072</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407072</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="U4" t="n">
-        <v>659.6853352735293</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="V4" t="n">
-        <v>659.6853352735293</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="W4" t="n">
-        <v>393.3076787063514</v>
+        <v>485.1036839758923</v>
       </c>
       <c r="X4" t="n">
-        <v>393.3076787063514</v>
+        <v>257.114133077875</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.3076787063514</v>
+        <v>36.32155393434482</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1281.099443398234</v>
+        <v>850.9193686480373</v>
       </c>
       <c r="C5" t="n">
-        <v>912.136926457822</v>
+        <v>850.9193686480373</v>
       </c>
       <c r="D5" t="n">
-        <v>912.136926457822</v>
+        <v>492.6536700412868</v>
       </c>
       <c r="E5" t="n">
-        <v>526.3486738595777</v>
+        <v>425.2038804041658</v>
       </c>
       <c r="F5" t="n">
-        <v>418.2583796549605</v>
+        <v>418.2583796549623</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523432</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523432</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523432</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275096</v>
+        <v>93.76641159275118</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245546</v>
+        <v>239.0325989245557</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825605</v>
+        <v>456.1499114825626</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748818</v>
+        <v>729.4041931748849</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202374</v>
+        <v>1011.693823202378</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798406</v>
+        <v>1264.916654798411</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189403</v>
+        <v>1446.535482189408</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261716</v>
+        <v>1534.750911261722</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261716</v>
+        <v>1534.750911261722</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261716</v>
+        <v>1534.750911261722</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261716</v>
+        <v>1534.750911261722</v>
       </c>
       <c r="U5" t="n">
-        <v>1281.099443398234</v>
+        <v>1534.750911261722</v>
       </c>
       <c r="V5" t="n">
-        <v>1281.099443398234</v>
+        <v>1203.688023918151</v>
       </c>
       <c r="W5" t="n">
-        <v>1281.099443398234</v>
+        <v>850.9193686480373</v>
       </c>
       <c r="X5" t="n">
-        <v>1281.099443398234</v>
+        <v>850.9193686480373</v>
       </c>
       <c r="Y5" t="n">
-        <v>1281.099443398234</v>
+        <v>850.9193686480373</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>625.3454228275332</v>
+        <v>604.9846379130979</v>
       </c>
       <c r="C6" t="n">
-        <v>485.4014408650561</v>
+        <v>583.7184994946848</v>
       </c>
       <c r="D6" t="n">
-        <v>336.4670312038048</v>
+        <v>434.7840898334335</v>
       </c>
       <c r="E6" t="n">
-        <v>177.2295761983493</v>
+        <v>275.546634827978</v>
       </c>
       <c r="F6" t="n">
-        <v>30.69501822523432</v>
+        <v>129.012076854863</v>
       </c>
       <c r="G6" t="n">
-        <v>30.69501822523432</v>
+        <v>129.012076854863</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523432</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523432</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="J6" t="n">
-        <v>174.2721860626384</v>
+        <v>174.2721860626388</v>
       </c>
       <c r="K6" t="n">
-        <v>284.4686930039481</v>
+        <v>284.4686930039491</v>
       </c>
       <c r="L6" t="n">
-        <v>478.9640368352991</v>
+        <v>478.9640368353009</v>
       </c>
       <c r="M6" t="n">
-        <v>725.2877975060439</v>
+        <v>725.2877975060467</v>
       </c>
       <c r="N6" t="n">
-        <v>992.5396600782652</v>
+        <v>992.5396600782688</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749974</v>
+        <v>1214.803107243787</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948662</v>
+        <v>1373.856052442475</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261716</v>
+        <v>1534.750911261722</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757964</v>
+        <v>1530.346686757971</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.346686757964</v>
+        <v>1530.346686757971</v>
       </c>
       <c r="T6" t="n">
-        <v>1530.346686757964</v>
+        <v>1530.346686757971</v>
       </c>
       <c r="U6" t="n">
-        <v>1530.346686757964</v>
+        <v>1302.225603078575</v>
       </c>
       <c r="V6" t="n">
-        <v>1295.194578526221</v>
+        <v>1067.073494846832</v>
       </c>
       <c r="W6" t="n">
-        <v>1040.95722179802</v>
+        <v>812.8361381186307</v>
       </c>
       <c r="X6" t="n">
-        <v>833.105721592487</v>
+        <v>604.9846379130979</v>
       </c>
       <c r="Y6" t="n">
-        <v>625.3454228275332</v>
+        <v>604.9846379130979</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>479.6713707408954</v>
+        <v>348.9138350914261</v>
       </c>
       <c r="C7" t="n">
-        <v>479.6713707408954</v>
+        <v>348.9138350914261</v>
       </c>
       <c r="D7" t="n">
-        <v>479.6713707408954</v>
+        <v>348.9138350914261</v>
       </c>
       <c r="E7" t="n">
-        <v>331.7582771585023</v>
+        <v>201.0007415090329</v>
       </c>
       <c r="F7" t="n">
-        <v>184.8683296605919</v>
+        <v>201.0007415090329</v>
       </c>
       <c r="G7" t="n">
-        <v>184.8683296605919</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709676</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709676</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523432</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223261</v>
+        <v>157.4322756223266</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830379</v>
+        <v>375.1387655830387</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388136</v>
+        <v>615.068857638815</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974802</v>
+        <v>854.728564797482</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891669</v>
+        <v>1060.076798891671</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934018</v>
+        <v>1212.267005934021</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.20053649518</v>
+        <v>1234.200536495183</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.20053649518</v>
+        <v>1234.200536495183</v>
       </c>
       <c r="S7" t="n">
-        <v>1110.101965612683</v>
+        <v>1030.691890529572</v>
       </c>
       <c r="T7" t="n">
-        <v>1110.101965612683</v>
+        <v>1030.691890529572</v>
       </c>
       <c r="U7" t="n">
-        <v>1110.101965612683</v>
+        <v>1013.23633902557</v>
       </c>
       <c r="V7" t="n">
-        <v>1110.101965612683</v>
+        <v>758.5518508196831</v>
       </c>
       <c r="W7" t="n">
-        <v>1110.101965612683</v>
+        <v>758.5518508196831</v>
       </c>
       <c r="X7" t="n">
-        <v>882.1124147146653</v>
+        <v>530.5622999216657</v>
       </c>
       <c r="Y7" t="n">
-        <v>661.3198355711352</v>
+        <v>530.5622999216657</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.676600992462</v>
+        <v>1674.035030689734</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.714084052051</v>
+        <v>1674.035030689734</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.4483854453</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>731.660132847056</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>320.6742280574485</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X8" t="n">
-        <v>2231.276441056584</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y8" t="n">
-        <v>2231.276441056584</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>482.9033490193026</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919905</v>
+        <v>777.6069060507743</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748155</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924317</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756614</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.8118151303141</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="C10" t="n">
-        <v>346.8756322024072</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D10" t="n">
-        <v>346.8756322024072</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G10" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1102.308999925818</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.255484944676</v>
+        <v>1102.308999925818</v>
       </c>
       <c r="W10" t="n">
-        <v>824.8383149077151</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="X10" t="n">
-        <v>824.8383149077151</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="Y10" t="n">
-        <v>697.4602799605539</v>
+        <v>812.8918298888575</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1898.076467649852</v>
+        <v>1872.090169197691</v>
       </c>
       <c r="C11" t="n">
-        <v>1529.11395070944</v>
+        <v>1503.12765225728</v>
       </c>
       <c r="D11" t="n">
-        <v>1170.848252102689</v>
+        <v>1144.86195365053</v>
       </c>
       <c r="E11" t="n">
-        <v>785.0599995044452</v>
+        <v>1144.86195365053</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044452</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455921</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592054</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592054</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706885</v>
+        <v>304.4060796706888</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656944</v>
+        <v>695.1615405656953</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625327</v>
+        <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087827</v>
+        <v>1828.956123087829</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484037</v>
+        <v>2455.60089048404</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535289</v>
+        <v>3033.988513535293</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479987</v>
+        <v>3493.127967479993</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464052</v>
+        <v>3789.749829464059</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796027</v>
+        <v>3876.883295796034</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796027</v>
+        <v>3776.999350345376</v>
       </c>
       <c r="T11" t="n">
-        <v>3876.883295796027</v>
+        <v>3573.02074392674</v>
       </c>
       <c r="U11" t="n">
-        <v>3623.389353917555</v>
+        <v>3319.526802048268</v>
       </c>
       <c r="V11" t="n">
-        <v>3292.326466573984</v>
+        <v>2988.463914704697</v>
       </c>
       <c r="W11" t="n">
-        <v>2939.55781130387</v>
+        <v>2635.695259434583</v>
       </c>
       <c r="X11" t="n">
-        <v>2674.815639689785</v>
+        <v>2262.229501173503</v>
       </c>
       <c r="Y11" t="n">
-        <v>2284.676307713974</v>
+        <v>1872.090169197691</v>
       </c>
     </row>
     <row r="12">
@@ -5103,40 +5103,40 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
         <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390845</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592054</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870407</v>
+        <v>193.8410919870411</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046644</v>
+        <v>470.7769964046652</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929991</v>
+        <v>889.4740370626166</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749526</v>
+        <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450735</v>
+        <v>1933.239912720354</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783257</v>
+        <v>2401.180957052877</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2401.180957052877</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>632.4420655799628</v>
+        <v>631.003865840868</v>
       </c>
       <c r="C13" t="n">
-        <v>463.5058826520559</v>
+        <v>631.003865840868</v>
       </c>
       <c r="D13" t="n">
-        <v>463.505882652056</v>
+        <v>631.003865840868</v>
       </c>
       <c r="E13" t="n">
-        <v>315.592789069663</v>
+        <v>483.0907722584749</v>
       </c>
       <c r="F13" t="n">
-        <v>168.7028415717527</v>
+        <v>336.2008247605645</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7028415717527</v>
+        <v>168.7028415717528</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717527</v>
+        <v>168.7028415717528</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592054</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758643</v>
+        <v>136.8552218758647</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648137</v>
+        <v>364.1690246648142</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344797</v>
+        <v>710.5788654344803</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376937</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336945</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818661</v>
+        <v>1786.049800818663</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010719</v>
+        <v>2042.940349010721</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742805</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742805</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="S13" t="n">
-        <v>2135.308879480466</v>
+        <v>1949.247121276103</v>
       </c>
       <c r="T13" t="n">
-        <v>1914.417546914907</v>
+        <v>1728.355788710543</v>
       </c>
       <c r="U13" t="n">
-        <v>1625.325853864358</v>
+        <v>1439.264095659994</v>
       </c>
       <c r="V13" t="n">
-        <v>1370.641365658471</v>
+        <v>1184.579607454107</v>
       </c>
       <c r="W13" t="n">
-        <v>1081.22419562151</v>
+        <v>1184.579607454107</v>
       </c>
       <c r="X13" t="n">
-        <v>853.2346447234929</v>
+        <v>1033.444909814638</v>
       </c>
       <c r="Y13" t="n">
-        <v>632.4420655799628</v>
+        <v>812.6523306711077</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273913</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273913</v>
+        <v>120.6800663848338</v>
       </c>
       <c r="K15" t="n">
-        <v>119.2902967703773</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703773</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969296</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400821</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121752</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121752</v>
+        <v>377.6556127449244</v>
       </c>
       <c r="E16" t="n">
-        <v>197.0043242297821</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797748</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564883</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611869</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138518</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703219</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797193</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797193</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.195150674524</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836118</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969557049</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814783056</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038443</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797845</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910819</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570828</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279813</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580271</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832673</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487578</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510519</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854717</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564883</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611869</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138515</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138515</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5750,10 +5750,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
@@ -5792,10 +5792,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890283</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.11872044489</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>984.5467179762957</v>
+        <v>580.8993044876694</v>
       </c>
       <c r="C22" t="n">
-        <v>815.6105350483888</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>665.493895636053</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E22" t="n">
-        <v>517.5808020536599</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F22" t="n">
-        <v>370.6908545557495</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>122.3381968195674</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5914,19 +5914,19 @@
         <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
@@ -5935,25 +5935,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614392</v>
       </c>
       <c r="Y22" t="n">
-        <v>1166.195182806535</v>
+        <v>762.5477693179091</v>
       </c>
     </row>
     <row r="23">
@@ -5966,10 +5966,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,22 +5981,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2343.157686942975</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>2123.556221965915</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1834.480995310113</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1579.796507104226</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="26">
@@ -6224,49 +6224,49 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075819</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>634.9279362553159</v>
+        <v>513.8536007400727</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121658</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121658</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121658</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121658</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2098.535416025753</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1809.46018936995</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1554.775701164063</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W28" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138427</v>
       </c>
       <c r="Y28" t="n">
-        <v>816.5764010855556</v>
+        <v>695.5020655703124</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.956424518383</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,28 +6695,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6731,7 +6731,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6868,25 +6868,25 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
         <v>1688.385853854707</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188007</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589093</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310024</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310024</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310024</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121644</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
         <v>2035.089393279803</v>
@@ -7351,7 +7351,7 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630697</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>979.2799367326793</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>758.487357589149</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708875</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429804</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429804</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642675</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925705</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7679,7 +7679,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7688,10 +7688,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1022.530292372933</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C46" t="n">
-        <v>853.5941094450266</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>703.4774700326908</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>555.5643764502977</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>408.6744289523873</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7810,7 +7810,7 @@
         <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1942.378057281681</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1652.960887244721</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1424.971336346703</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.178757203173</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167812</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.262887399594774</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637059</v>
+        <v>34.4393943863702</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>105.5468419254461</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>105.546841925447</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>186.4490126143851</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111062</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>74.81873317893456</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184586</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615229</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>107.6363507805249</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905254</v>
+        <v>79.81330679905243</v>
       </c>
       <c r="S13" t="n">
-        <v>184.2011406223219</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>76.08630472596252</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-2.211207246900395e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>10.8544504695173</v>
       </c>
       <c r="F16" t="n">
-        <v>43.26526345293919</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>68.52575990661494</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194207</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>31.71340154579298</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>53.02951788468593</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>78.25894333073092</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.28686650065933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405062</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>53.4883454499697</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>72.11969353038546</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>121.5862749664506</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393102</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>138.4949402405089</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>75.37549921168696</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,10 +26074,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1035993.989389363</v>
+        <v>1035993.989389364</v>
       </c>
     </row>
     <row r="6">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>287364.6194524994</v>
+      </c>
+      <c r="C2" t="n">
+        <v>287364.6194524991</v>
+      </c>
+      <c r="D2" t="n">
         <v>287364.6194524993</v>
       </c>
-      <c r="C2" t="n">
-        <v>287364.6194524992</v>
-      </c>
-      <c r="D2" t="n">
-        <v>287364.6194524994</v>
-      </c>
       <c r="E2" t="n">
-        <v>256406.2354960384</v>
+        <v>256406.2354960386</v>
       </c>
       <c r="F2" t="n">
+        <v>282501.3098915023</v>
+      </c>
+      <c r="G2" t="n">
         <v>282501.3098915022</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>282501.3098915023</v>
-      </c>
-      <c r="H2" t="n">
-        <v>282501.3098915022</v>
       </c>
       <c r="I2" t="n">
         <v>282501.3098915022</v>
@@ -26338,10 +26338,10 @@
         <v>282501.3098915023</v>
       </c>
       <c r="K2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
         <v>282501.3098915021</v>
@@ -26350,10 +26350,10 @@
         <v>282501.3098915022</v>
       </c>
       <c r="O2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="P2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911927</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657048</v>
+        <v>132804.2190657064</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929399</v>
+        <v>265413.0723929383</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545752</v>
+        <v>313577.1573545766</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704318</v>
+        <v>189308.2687704297</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911411</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417365</v>
+        <v>30877.42926417409</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049624</v>
+        <v>65018.34502049585</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273016</v>
+        <v>81897.40371273067</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202438</v>
+        <v>49839.5741320238</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251227.3656190199</v>
+        <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>215494.7982664861</v>
+        <v>215494.7982664856</v>
       </c>
       <c r="D4" t="n">
-        <v>140338.6838374607</v>
+        <v>140338.6838374606</v>
       </c>
       <c r="E4" t="n">
-        <v>11061.61369214704</v>
+        <v>11061.61369214698</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="I4" t="n">
         <v>11167.03225179347</v>
       </c>
-      <c r="I4" t="n">
-        <v>11167.0322517935</v>
-      </c>
       <c r="J4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11167.03225179343</v>
+      </c>
+      <c r="L4" t="n">
         <v>11167.03225179347</v>
       </c>
-      <c r="K4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>11167.03225179349</v>
       </c>
-      <c r="M4" t="n">
-        <v>11167.03225179354</v>
-      </c>
       <c r="N4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179349</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179349</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179349</v>
+        <v>11167.03225179348</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667477</v>
+        <v>72593.6503866749</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738548</v>
+        <v>85137.48506738563</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706998.5299619796</v>
+        <v>-706998.5299619798</v>
       </c>
       <c r="C6" t="n">
-        <v>-133528.0482663664</v>
+        <v>-133528.0482663678</v>
       </c>
       <c r="D6" t="n">
-        <v>-211324.909217746</v>
+        <v>-211324.9092177444</v>
       </c>
       <c r="E6" t="n">
-        <v>-153370.0206180694</v>
+        <v>-153591.1519320453</v>
       </c>
       <c r="F6" t="n">
-        <v>-19096.52095463024</v>
+        <v>-19131.25888006373</v>
       </c>
       <c r="G6" t="n">
-        <v>170211.7478158017</v>
+        <v>170177.0098903658</v>
       </c>
       <c r="H6" t="n">
-        <v>170211.7478158017</v>
+        <v>170177.0098903659</v>
       </c>
       <c r="I6" t="n">
-        <v>170211.7478158018</v>
+        <v>170177.0098903659</v>
       </c>
       <c r="J6" t="n">
-        <v>101212.5933966876</v>
+        <v>101177.8554712519</v>
       </c>
       <c r="K6" t="n">
-        <v>139334.318551628</v>
+        <v>139299.5806261918</v>
       </c>
       <c r="L6" t="n">
-        <v>105193.4027953054</v>
+        <v>105158.6648698699</v>
       </c>
       <c r="M6" t="n">
-        <v>88314.34410307133</v>
+        <v>88279.60617763516</v>
       </c>
       <c r="N6" t="n">
-        <v>120372.1736837772</v>
+        <v>120337.4357583421</v>
       </c>
       <c r="O6" t="n">
-        <v>170211.7478158015</v>
+        <v>170177.0098903659</v>
       </c>
       <c r="P6" t="n">
-        <v>170211.7478158016</v>
+        <v>170177.0098903658</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695728</v>
+        <v>717.3319511695744</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.687727815429</v>
+        <v>383.6877278154305</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490067</v>
+        <v>969.2208239490086</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26808,25 +26808,25 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099649</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000948</v>
+        <v>103.276937400096</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479663</v>
+        <v>216.7329409479649</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974095</v>
+        <v>268.1763450974106</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267259</v>
+        <v>165.734263126724</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139229</v>
+        <v>119.9738478139243</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846098</v>
+        <v>256.8971042846083</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489679</v>
+        <v>328.6359918489698</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506424</v>
+        <v>203.48746415064</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139227</v>
+        <v>119.9738478139246</v>
       </c>
       <c r="L4" t="n">
-        <v>256.89710428461</v>
+        <v>256.8971042846083</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489677</v>
+        <v>328.6359918489698</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506424</v>
+        <v>203.48746415064</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139229</v>
+        <v>119.9738478139243</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846098</v>
+        <v>256.8971042846083</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489679</v>
+        <v>328.6359918489698</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506424</v>
+        <v>203.48746415064</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>122.4038561153564</v>
       </c>
       <c r="E2" t="n">
-        <v>322.1290981535791</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776178</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032233</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862882</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27515,16 +27515,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>141.870766444501</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>189.8561910605072</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>105.6855682438418</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27555,7 +27555,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117141</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508492</v>
+        <v>150.4021907899195</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>315.155078331512</v>
       </c>
       <c r="F5" t="n">
-        <v>299.8666544791404</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>28.73126316234098</v>
+        <v>28.73126316233938</v>
       </c>
       <c r="H5" t="n">
         <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863722</v>
+        <v>99.30025118863698</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660377</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968156</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>34.16395684546342</v>
+        <v>151.6550219540868</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333231</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951746</v>
+        <v>36.27346476951735</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
         <v>116.5499160015378</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315186</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>78.61597433228209</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422209</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>268.9674761264297</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>315.2052637619722</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>144.8145356984031</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27910,16 +27910,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>274.4001339525311</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>92.48039875440514</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.644924279593397e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>9.337478938202064e-12</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-2.285194416940444e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>9.862333172350191e-12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.722622624190989e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-7.144468577784776e-14</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29509,19 +29509,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-1.478997154632013e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29992,13 +29992,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,13 +30457,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-8.30056023914949e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350877</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582785</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365115</v>
+        <v>2.883746537365121</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579049</v>
+        <v>29.53316922579055</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817687</v>
+        <v>111.1756383817689</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756926</v>
+        <v>244.7543826756932</v>
       </c>
       <c r="K5" t="n">
-        <v>366.823373602358</v>
+        <v>366.8233736023588</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952457</v>
+        <v>455.0768316952467</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791125</v>
+        <v>506.3606591791137</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284012</v>
+        <v>514.5541040284023</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974768</v>
+        <v>485.8788493974779</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562755</v>
+        <v>414.6863567562764</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868872</v>
+        <v>311.4121838868879</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277615</v>
+        <v>181.1461434277619</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020761</v>
+        <v>65.71337422020775</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731579</v>
+        <v>12.62360046731582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892091</v>
+        <v>0.2306997229892096</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270402</v>
+        <v>1.542940423270405</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316415</v>
+        <v>14.90155619316418</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189762</v>
+        <v>53.12316808189773</v>
       </c>
       <c r="J6" t="n">
-        <v>145.774033586262</v>
+        <v>145.7740335862623</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453789</v>
+        <v>249.1510419453795</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438651</v>
+        <v>335.0143230438659</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874171</v>
+        <v>390.945913387418</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189104</v>
+        <v>401.2930884189113</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348662</v>
+        <v>367.104776934867</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190647</v>
+        <v>294.6339480190654</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739552</v>
+        <v>196.9549915739556</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392903</v>
+        <v>95.79765189392924</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399188</v>
+        <v>28.65944163399194</v>
       </c>
       <c r="T6" t="n">
-        <v>6.21913267098903</v>
+        <v>6.219132670989044</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730528</v>
+        <v>0.101509238373053</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141852</v>
+        <v>1.293549420141855</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907939</v>
+        <v>11.50083029907941</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572045</v>
+        <v>38.90055892572053</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402895</v>
+        <v>91.45394400402917</v>
       </c>
       <c r="K7" t="n">
-        <v>150.286923540117</v>
+        <v>150.2869235401173</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545442</v>
+        <v>192.3155201545446</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773269</v>
+        <v>202.7697513773273</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022529</v>
+        <v>197.9483399022533</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669594</v>
+        <v>182.8373307669598</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960654</v>
+        <v>156.4489225960658</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266055</v>
+        <v>108.3171246266057</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565091</v>
+        <v>58.16268574565105</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101755</v>
+        <v>22.5430385310176</v>
       </c>
       <c r="T7" t="n">
-        <v>5.52698388606064</v>
+        <v>5.526983886060653</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864658</v>
+        <v>0.07055724109864674</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869136</v>
+        <v>4.833130601869142</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639231</v>
+        <v>49.49729877639236</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285601</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.205918420391</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975117</v>
+        <v>614.7923367975123</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544644</v>
+        <v>762.7042574544653</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954546</v>
+        <v>848.6554437954555</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180153</v>
+        <v>862.3875761180163</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956791</v>
+        <v>814.32813369568</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620346</v>
+        <v>695.0102219620354</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.923732282596</v>
+        <v>521.9237322825967</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696624</v>
+        <v>303.5991401696627</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968215</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495308</v>
+        <v>0.3866504481495313</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858569</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837092</v>
+        <v>24.97486041837094</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469196</v>
+        <v>89.03390294469206</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193133</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598374</v>
+        <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>171.3336650206163</v>
+        <v>561.4806834747745</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821469</v>
+        <v>655.2214742821476</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340494</v>
+        <v>672.5632370340502</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924464</v>
+        <v>615.2639659924471</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383438</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047535</v>
+        <v>299.7767623746055</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627645</v>
+        <v>48.0329399962765</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643796</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535153</v>
+        <v>2.167976001535155</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092165</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798444</v>
+        <v>65.19695102798451</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085353</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329023</v>
+        <v>251.8793936329025</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100536</v>
+        <v>322.318904810054</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770058</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531023</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806234</v>
+        <v>306.4335533806237</v>
       </c>
       <c r="P13" t="n">
-        <v>262.206842949306</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194572</v>
+        <v>181.5384268194574</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811694</v>
+        <v>97.48008457811706</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493533</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377469</v>
+        <v>9.26317018837748</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473721</v>
+        <v>0.1182532364473722</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>153.9723775119818</v>
       </c>
       <c r="K15" t="n">
-        <v>161.7871425275288</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32160,31 +32160,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,34 +32312,34 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832319</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,28 +32546,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,7 +32576,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,19 +32783,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32804,7 +32804,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,19 +33020,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,16 +33257,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33494,16 +33494,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,16 +33731,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,16 +33968,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,13 +34205,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,10 +34442,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763038</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.8797653960911</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496797</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900634</v>
+        <v>63.70847814900688</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573775</v>
+        <v>146.7335225573783</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252584</v>
+        <v>219.3104167252595</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518398</v>
+        <v>276.014425951841</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318103</v>
+        <v>285.1410404318114</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757901</v>
+        <v>255.7806379757912</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010059</v>
+        <v>183.4533610010069</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243776</v>
+        <v>89.10649401243845</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>145.0274422600041</v>
+        <v>145.0274422600044</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710199</v>
+        <v>111.3096029710205</v>
       </c>
       <c r="L6" t="n">
-        <v>196.459943263991</v>
+        <v>196.4599432639917</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653988</v>
+        <v>248.8118794653997</v>
       </c>
       <c r="N6" t="n">
-        <v>269.951376335577</v>
+        <v>269.9513763355779</v>
       </c>
       <c r="O6" t="n">
-        <v>330.0553744158678</v>
+        <v>224.5085324904226</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047345</v>
+        <v>160.6595406047352</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793365</v>
+        <v>162.5200594133811</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142342</v>
+        <v>128.0174317142345</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148603</v>
+        <v>219.9055454148607</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391675</v>
+        <v>242.3536283391679</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814815</v>
+        <v>242.0805122814819</v>
       </c>
       <c r="O7" t="n">
-        <v>207.422458680999</v>
+        <v>207.4224586809994</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609589</v>
+        <v>153.7274818609593</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491111</v>
+        <v>22.15508137491135</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>373.0365088578699</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419607</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937047</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525311</v>
+        <v>394.7024857525318</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844772</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681819</v>
+        <v>618.3092105681828</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214245</v>
+        <v>632.9745125214254</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739923</v>
+        <v>584.2299222739932</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067651</v>
+        <v>463.7772262067659</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081465</v>
+        <v>299.6180424081472</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553028</v>
+        <v>88.01360235553062</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526466</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854784</v>
+        <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>32.77928524074213</v>
+        <v>422.9263036949004</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601285</v>
+        <v>513.0874403601292</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507161</v>
+        <v>541.2215249507169</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548002</v>
+        <v>472.6677215480026</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240135</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.112838818732</v>
+        <v>159.7949882885839</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186253</v>
+        <v>59.9167231918627</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070194</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703697</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388464</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.891627232331</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946631</v>
+        <v>331.0186812946634</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141995</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776283</v>
+        <v>95.37638356776306</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>27.13475084531509</v>
       </c>
       <c r="K15" t="n">
-        <v>23.94570355316984</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998987</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326296331</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36452,7 +36452,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36689,13 +36689,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37944,13 +37944,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
